--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_0_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_0_43.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14087.52353682104</v>
+        <v>845251.4122092625</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034694265.186677</v>
+        <v>40919982.685582</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9037.773342921144</v>
+        <v>850079.5022245015</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18075.54668584229</v>
+        <v>1700159.004449002</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>27113.32002876343</v>
+        <v>2550238.506673505</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37093.68107970529</v>
+        <v>3349244.066047633</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47074.04213064713</v>
+        <v>4148249.625421762</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56211.64287844507</v>
+        <v>4998329.127646262</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65349.24362624302</v>
+        <v>5848408.629870759</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74486.84437404096</v>
+        <v>6698488.132095258</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>84467.20542498284</v>
+        <v>7497493.691469382</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>93669.14301330126</v>
+        <v>8335803.959706376</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>102806.7437610992</v>
+        <v>9185883.461930878</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>111944.3445088971</v>
+        <v>10035962.96415539</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121081.945256695</v>
+        <v>10886042.46637989</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130287.465385827</v>
+        <v>11723969.0926969</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140267.8264367689</v>
+        <v>12522974.65207103</v>
       </c>
     </row>
   </sheetData>
